--- a/Procedure za releje MT-300-TFA.xlsx
+++ b/Procedure za releje MT-300-TFA.xlsx
@@ -175,11 +175,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -477,21 +477,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -576,21 +576,21 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Procedure za releje MT-300-TFA.xlsx
+++ b/Procedure za releje MT-300-TFA.xlsx
@@ -15,11 +15,7 @@
     <sheet name="Delovni list1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -462,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -805,7 +801,7 @@
     <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Navadno"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Navadno"&amp;12Stran &amp;P</oddFooter>
